--- a/data/vetvleniq_graph.xlsx
+++ b/data/vetvleniq_graph.xlsx
@@ -2,18 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\graph\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonovae\Desktop\!!Финальные материалы\!!Финальные материалы\База данных\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="950" yWindow="0" windowWidth="28800" windowHeight="13040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$58</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="275">
   <si>
     <t>branch</t>
   </si>
@@ -782,7 +785,76 @@
     <t>GDM|F14|0</t>
   </si>
   <si>
+    <t>CGM|M2|B1</t>
+  </si>
+  <si>
+    <t>CGM|M2|B1|F01</t>
+  </si>
+  <si>
+    <t>Есть необходимость строить куб Фаций?</t>
+  </si>
+  <si>
+    <t>CGM|M2|B1|F01|1</t>
+  </si>
+  <si>
+    <t>CGM|M2|B1|F01|0</t>
+  </si>
+  <si>
+    <t>CGM|M2|B2</t>
+  </si>
+  <si>
+    <t>CGM|M2|B2|F01</t>
+  </si>
+  <si>
+    <t>CGM|M2|B2|F01|1</t>
+  </si>
+  <si>
+    <t>CGM|M2|B2|F01|0</t>
+  </si>
+  <si>
+    <t>CGM|M2|B3</t>
+  </si>
+  <si>
+    <t>CGM|M2|B3|F01</t>
+  </si>
+  <si>
+    <t>CGM|M2|B3|F01|1</t>
+  </si>
+  <si>
+    <t>CGM|M2|B3|F01|0</t>
+  </si>
+  <si>
+    <t>CGM|M2|B4</t>
+  </si>
+  <si>
+    <t>CGM|M2|B4|F01</t>
+  </si>
+  <si>
+    <t>CGM|M2|B4|F01|1</t>
+  </si>
+  <si>
+    <t>CGM|M2|B4|F01|0</t>
+  </si>
+  <si>
+    <t>CGM|M2|B5</t>
+  </si>
+  <si>
+    <t>CGM|M2|B5|F01</t>
+  </si>
+  <si>
+    <t>CGM|M2|B5|F01|1</t>
+  </si>
+  <si>
+    <t>CGM|M2|B5|F01|0</t>
+  </si>
+  <si>
+    <t>CGM|A14-1</t>
+  </si>
+  <si>
     <t>GDM|F02</t>
+  </si>
+  <si>
+    <t>KGM|FES|B1-2|F02|1</t>
   </si>
 </sst>
 </file>
@@ -812,12 +884,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -847,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -860,9 +938,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1140,25 +1221,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J92"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1184,7 +1266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1210,7 +1292,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1233,10 +1315,10 @@
         <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1262,7 +1344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1314,7 +1396,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1340,7 +1422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1366,7 +1448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1392,7 +1474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1418,7 +1500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1444,7 +1526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>64</v>
       </c>
@@ -1470,7 +1552,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>64</v>
       </c>
@@ -1496,7 +1578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
@@ -1522,7 +1604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
@@ -1548,189 +1630,189 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4" t="s">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>64</v>
       </c>
@@ -1741,22 +1823,22 @@
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>64</v>
       </c>
@@ -1767,552 +1849,552 @@
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4" t="s">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4" t="s">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4" t="s">
+    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4" t="s">
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4" t="s">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="s">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4" t="s">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>129</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4" t="s">
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B41" s="4">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" s="4">
-        <v>0</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>186</v>
       </c>
@@ -2323,22 +2405,22 @@
         <v>0</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>214</v>
+        <v>189</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>186</v>
       </c>
@@ -2349,22 +2431,22 @@
         <v>0</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>186</v>
       </c>
@@ -2375,22 +2457,22 @@
         <v>0</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>186</v>
       </c>
@@ -2400,23 +2482,23 @@
       <c r="C48" s="4">
         <v>0</v>
       </c>
-      <c r="D48" s="4">
-        <v>0</v>
+      <c r="D48" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>186</v>
       </c>
@@ -2426,23 +2508,23 @@
       <c r="C49" s="4">
         <v>0</v>
       </c>
-      <c r="D49" s="4">
-        <v>0</v>
+      <c r="D49" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>231</v>
+        <v>206</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>186</v>
       </c>
@@ -2452,23 +2534,23 @@
       <c r="C50" s="4">
         <v>0</v>
       </c>
-      <c r="D50" s="4">
-        <v>0</v>
+      <c r="D50" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>232</v>
+        <v>212</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>186</v>
       </c>
@@ -2478,23 +2560,23 @@
       <c r="C51" s="4">
         <v>0</v>
       </c>
-      <c r="D51" s="4">
-        <v>0</v>
+      <c r="D51" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>242</v>
+        <v>217</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>186</v>
       </c>
@@ -2504,23 +2586,23 @@
       <c r="C52" s="4">
         <v>0</v>
       </c>
-      <c r="D52" s="4">
-        <v>0</v>
+      <c r="D52" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>243</v>
+        <v>222</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>186</v>
       </c>
@@ -2534,87 +2616,167 @@
         <v>0</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2624,7 +2786,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2634,7 +2796,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2644,7 +2806,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2654,7 +2816,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2664,7 +2826,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2674,7 +2836,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2684,7 +2846,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2694,7 +2856,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2704,7 +2866,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2714,7 +2876,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2724,7 +2886,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2734,7 +2896,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2744,7 +2906,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2754,7 +2916,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2764,7 +2926,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2774,7 +2936,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2784,7 +2946,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2794,7 +2956,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2804,7 +2966,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2814,7 +2976,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2824,7 +2986,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2834,7 +2996,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2844,7 +3006,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2854,7 +3016,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2864,7 +3026,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2874,7 +3036,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2884,7 +3046,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2894,7 +3056,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2904,7 +3066,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2914,7 +3076,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2924,7 +3086,65 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I58">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CGM"/>
+        <filter val="KGM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
